--- a/DOM_Banner/output/dept_banner/Mohammad Fazel_2023.xlsx
+++ b/DOM_Banner/output/dept_banner/Mohammad Fazel_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -365,75 +365,80 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>affiliation</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
           <t>id</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>display_name</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>publication_date</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>so</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>host_organization</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>url</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>license</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>version</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>oa_status</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>language</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>cited_by_count</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>publication_year</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>pmid</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>doi</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>type</t>
         </is>
@@ -447,75 +452,80 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
+          <t>Department of Neurology and Neurophysiology, Medical Center - University of Freiburg, Faculty of Medicine, University of Freiburg, Freiburg, Germany; Neurology and Neurointensive Care, Darmstadt Hospital, Darmstadt, Germany; Department of Neurology and Neurophysiology, Medical Center - University of Freiburg, Faculty of Medicine, University of Freiburg, Freiburg, Germany; Department of Neurology and Neurophysiology, Medical Center - University of Freiburg, Faculty of Medicine, University of Freiburg, Freiburg, Germany; BrainCool AB, Lund, Sweden; Department of Neuroradiology, Medical Center - University of Freiburg, Faculty of Medicine, University of Freiburg, Freiburg, Germany; Department of Neurology and Neurophysiology, Medical Center - University of Freiburg, Faculty of Medicine, University of Freiburg, Freiburg, Germany</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4386117100</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="D2" t="inlineStr">
         <is>
           <t>COmbination of Targeted temperature management and Thrombectomy after acute Ischemic Stroke (COTTIS): a pilot study</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2023-08-23</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>Stroke and Vascular Neurology</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>BMJ</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/svn-2023-002420</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>cc-by-nc</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>publishedVersion</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>gold</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
+      <c r="L2" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L2" t="inlineStr">
+      <c r="M2" t="inlineStr">
         <is>
           <t>1</t>
         </is>
       </c>
-      <c r="M2" t="inlineStr">
+      <c r="N2" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N2" t="inlineStr">
+      <c r="O2" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37612052</t>
         </is>
       </c>
-      <c r="O2" t="inlineStr">
+      <c r="P2" t="inlineStr">
         <is>
           <t>https://doi.org/10.1136/svn-2023-002420</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
+      <c r="Q2" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -529,75 +539,80 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>University of Arizona - College of Medicine; University of California, San Francisco; ; University of Arizona - College of Medicine; DermPath Diagnostics; University of Arizona - College of Medicine</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4321452894</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="D3" t="inlineStr">
         <is>
           <t>An Ulcerated Verrucous Plaque on the Leg: A Case Report of Limited Cutaneous Leishmaniasis in Tucson, Arizona</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>2023-01-01</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>Social Science Research Network</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>RELX Group (Netherlands)</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4342106</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I3" t="inlineStr">
+      <c r="J3" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K3" t="inlineStr">
+      <c r="L3" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L3" t="inlineStr">
+      <c r="M3" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M3" t="inlineStr">
+      <c r="N3" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N3" t="inlineStr">
+      <c r="O3" t="inlineStr">
         <is>
           <t>NA</t>
         </is>
       </c>
-      <c r="O3" t="inlineStr">
+      <c r="P3" t="inlineStr">
         <is>
           <t>https://doi.org/10.2139/ssrn.4342106</t>
         </is>
       </c>
-      <c r="P3" t="inlineStr">
+      <c r="Q3" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -611,75 +626,80 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Division of Dermatology, University of Arizona College of Medicine–Tucson, Tucson, Arizona; Division of Dermatology, University of Arizona College of Medicine–Tucson, Tucson, Arizona; Division of Dermatology, University of Arizona College of Medicine–Tucson, Tucson, Arizona</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
           <t>https://openalex.org/W4365816083</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="D4" t="inlineStr">
         <is>
           <t>Medications affecting the insulin-like growth factor 1/growth hormone axis, including teprotumumab, somatostatin analogs, and anti-calcitonin gene-related peptide monoclonal antibodies, are associated with elevated reporting odds of alopecia in women: A pharmacovigilance study</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>2023-08-01</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>Journal of the American Academy of Dermatology</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>Elsevier BV</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaad.2023.03.057</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="J4" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K4" t="inlineStr">
+      <c r="L4" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L4" t="inlineStr">
+      <c r="M4" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M4" t="inlineStr">
+      <c r="N4" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N4" t="inlineStr">
+      <c r="O4" t="inlineStr">
         <is>
           <t>https://pubmed.ncbi.nlm.nih.gov/37062463</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>https://doi.org/10.1016/j.jaad.2023.03.057</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
+      <c r="Q4" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -688,80 +708,85 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Caitlyn B. Dagenet, Mitchell S. Davis, Sean D. Murphy, Rebecca Thiede, Keliegh S. Culpepper, Mohammad Reza Fazel</t>
+          <t>Jennifer M. Fernandez, Elizabeth M. Mata, Jennifer Erdrich, Mohammad Reza Fazel</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4376639535</t>
+          <t>Department of Dermatology, University of Nebraska Medical Center, Omaha, Nebraska; University of Arizona, College of Medicine—Tucson, Tucson, Arizona; Department of Surgery, University of Arizona, College of Medicine—Tucson, Tucson, Arizona; Division of Dermatology, Department of Medicine, University of Arizona, College of Medicine—Tucson, Tucson, Arizona</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Limited Cutaneous Leishmaniasis as Ulcerated Verrucous Plaque on Leg, Tucson, Arizona, USA1</t>
+          <t>https://openalex.org/W4386019337</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>2023-06-01</t>
+          <t>Retrospective Cohort Analysis of Sex Differences in American Indians and Alaska Natives With Invasive Melanoma From the National Cancer Database</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Emerging Infectious Diseases</t>
+          <t>2023-08-14</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Centers for Disease Control and Prevention</t>
+          <t>Dermatologic Surgery</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3201/eid2906.230125</t>
+          <t>Lippincott Williams &amp; Wilkins</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>cc-by</t>
+          <t>https://doi.org/10.1097/dss.0000000000003898</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>publishedVersion</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>gold</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>closed</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
+      <c r="M5" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M5" t="inlineStr">
+      <c r="N5" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N5" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37209715</t>
-        </is>
-      </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>https://doi.org/10.3201/eid2906.230125</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37602949</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1097/dss.0000000000003898</t>
+        </is>
+      </c>
+      <c r="Q5" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -770,80 +795,85 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Hakimeh Zare, Mohammad Mahdi Jalili, Mohammad Reza Fazel</t>
+          <t>Caitlin Cameron, Kenneth C. Carroll, Allison Forbes, Xhovana Luca, Ahmad Alamer, Mohammad Reza Fazel</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4384499210</t>
+          <t>Department of Pharmacy Practice and Science, The University of Arizona R. Ken Coit College of Pharmacy, Phoenix, AZ, USA; The University of Arizona R. Ken Coit Ken Coit College of Pharmacy, Tucson, AZ, USA; The University of Arizona R. Ken Coit Ken Coit College of Pharmacy, Tucson, AZ, USA; The University of Arizona R. Ken Coit Ken Coit College of Pharmacy, Tucson, AZ, USA; Department of Clinical Pharmacy, Prince Sattam bin Abdulaziz University, College of Pharmacy, Alkharj, Saudi Arabia; Department of Pharmacy Practice and Science, The University of Arizona R. Ken Coit College of Pharmacy, Tucson, AZ, USA</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Multiobjective optimization for semi-active electromagnetic vehicle suspensions</t>
+          <t>https://openalex.org/W4386346699</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>2023-07-17</t>
+          <t>A Cross-Sectional Survey Study of Student Pharmacists’ Career Interests</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Journal of the Brazilian Society of Mechanical Sciences and Engineering</t>
+          <t>2023-09-01</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Springer Science+Business Media</t>
+          <t>Journal of Pharmacy Practice</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40430-023-04347-y</t>
+          <t>SAGE Publishing</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1177/08971900231198926</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I6" t="inlineStr">
+      <c r="J6" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
+      <c r="L6" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L6" t="inlineStr">
+      <c r="M6" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M6" t="inlineStr">
+      <c r="N6" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N6" t="inlineStr">
-        <is>
-          <t>NA</t>
-        </is>
-      </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1007/s40430-023-04347-y</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37655622</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1177/08971900231198926</t>
+        </is>
+      </c>
+      <c r="Q6" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -852,80 +882,85 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Jennifer M. Fernandez, Elizabeth M. Mata, Jennifer Erdrich, Mohammad Reza Fazel</t>
+          <t>Caitlyn B. Dagenet, Mitchell S. Davis, Sean D. Murphy, Rebecca Thiede, Keliegh S. Culpepper, Mohammad Reza Fazel</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386019337</t>
+          <t xml:space="preserve">; ; ; ; ; </t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Retrospective Cohort Analysis of Sex Differences in American Indians and Alaska Natives With Invasive Melanoma From the National Cancer Database</t>
+          <t>https://openalex.org/W4376639535</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>2023-08-14</t>
+          <t>Limited Cutaneous Leishmaniasis as Ulcerated Verrucous Plaque on Leg, Tucson, Arizona, USA1</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Dermatologic Surgery</t>
+          <t>2023-06-01</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Lippincott Williams &amp; Wilkins</t>
+          <t>Emerging Infectious Diseases</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/dss.0000000000003898</t>
+          <t>Centers for Disease Control and Prevention</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>https://doi.org/10.3201/eid2906.230125</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>cc-by</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>closed</t>
+          <t>publishedVersion</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
+          <t>gold</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L7" t="inlineStr">
+      <c r="M7" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M7" t="inlineStr">
+      <c r="N7" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N7" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37602949</t>
-        </is>
-      </c>
       <c r="O7" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1097/dss.0000000000003898</t>
+          <t>https://pubmed.ncbi.nlm.nih.gov/37209715</t>
         </is>
       </c>
       <c r="P7" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.3201/eid2906.230125</t>
+        </is>
+      </c>
+      <c r="Q7" t="inlineStr">
         <is>
           <t>article</t>
         </is>
@@ -934,80 +969,85 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Caitlin Cameron, Kenneth C. Carroll, Allison Forbes, Xhovana Luca, Ahmad Alamer, Mohammad Reza Fazel</t>
+          <t>Hakimeh Zare, Mohammad Mahdi Jalili, Mohammad Reza Fazel</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>https://openalex.org/W4386346699</t>
+          <t>Department of Mechanical Engineering, Yazd University, P.O. Box 89195-741, Yazd, Iran; Department of Mechanical Engineering, Yazd University, P.O. Box 89195-741, Yazd, Iran; Department of Mechanical Engineering, Yazd University, P.O. Box 89195-741, Yazd, Iran</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>A Cross-Sectional Survey Study of Student Pharmacists’ Career Interests</t>
+          <t>https://openalex.org/W4384499210</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>2023-09-01</t>
+          <t>Multiobjective optimization for semi-active electromagnetic vehicle suspensions</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Journal of Pharmacy Practice</t>
+          <t>2023-07-17</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>SAGE Publishing</t>
+          <t>Journal of the Brazilian Society of Mechanical Sciences and Engineering</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/08971900231198926</t>
+          <t>Springer Science+Business Media</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
+          <t>https://doi.org/10.1007/s40430-023-04347-y</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="I8" t="inlineStr">
+      <c r="J8" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>closed</t>
         </is>
       </c>
-      <c r="K8" t="inlineStr">
+      <c r="L8" t="inlineStr">
         <is>
           <t>en</t>
         </is>
       </c>
-      <c r="L8" t="inlineStr">
+      <c r="M8" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="M8" t="inlineStr">
+      <c r="N8" t="inlineStr">
         <is>
           <t>2023</t>
         </is>
       </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>https://pubmed.ncbi.nlm.nih.gov/37655622</t>
-        </is>
-      </c>
       <c r="O8" t="inlineStr">
         <is>
-          <t>https://doi.org/10.1177/08971900231198926</t>
+          <t>NA</t>
         </is>
       </c>
       <c r="P8" t="inlineStr">
+        <is>
+          <t>https://doi.org/10.1007/s40430-023-04347-y</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
         <is>
           <t>article</t>
         </is>
